--- a/teaching/traditional_assets/database/data/bermuda/bermuda_bank_money_center.xlsx
+++ b/teaching/traditional_assets/database/data/bermuda/bermuda_bank_money_center.xlsx
@@ -591,13 +591,13 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.079</v>
+        <v>0.005550000000000003</v>
       </c>
       <c r="E2">
-        <v>0.1495</v>
+        <v>-0.09965</v>
       </c>
       <c r="F2">
-        <v>0.09</v>
+        <v>0.0424</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -606,91 +606,91 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.0001572616714511091</v>
+        <v>-0.0008679749190641864</v>
       </c>
       <c r="J2">
-        <v>0.0001355101417288587</v>
+        <v>-0.0007781605929032928</v>
       </c>
       <c r="K2">
-        <v>1438.7</v>
+        <v>334.3</v>
       </c>
       <c r="L2">
-        <v>0.3313221104023213</v>
+        <v>0.1224183389482936</v>
       </c>
       <c r="M2">
-        <v>924.8</v>
+        <v>705.4</v>
       </c>
       <c r="N2">
-        <v>0.04877199829129245</v>
+        <v>0.04850143359071501</v>
       </c>
       <c r="O2">
-        <v>0.6428025300618615</v>
+        <v>2.11008076577924</v>
       </c>
       <c r="P2">
-        <v>792.8000000000001</v>
+        <v>545.9</v>
       </c>
       <c r="Q2">
-        <v>0.04181059715109933</v>
+        <v>0.03753463651427746</v>
       </c>
       <c r="R2">
-        <v>0.5510530339890179</v>
+        <v>1.632964403230631</v>
       </c>
       <c r="S2">
-        <v>132</v>
+        <v>159.5</v>
       </c>
       <c r="T2">
-        <v>0.1427335640138408</v>
+        <v>0.2261128437765806</v>
       </c>
       <c r="U2">
-        <v>11705.7</v>
+        <v>12446.1</v>
       </c>
       <c r="V2">
-        <v>0.617333888839081</v>
+        <v>0.8557608344391806</v>
       </c>
       <c r="W2">
-        <v>0.19552342615382</v>
+        <v>0.0893035463105897</v>
       </c>
       <c r="X2">
-        <v>0.05054219809483085</v>
+        <v>0.04513851340361954</v>
       </c>
       <c r="Y2">
-        <v>0.1449812280589892</v>
+        <v>0.04416503290697017</v>
       </c>
       <c r="Z2">
-        <v>0.578654254641937</v>
+        <v>0.5598768335455888</v>
       </c>
       <c r="AA2">
-        <v>-0.001327847330900964</v>
+        <v>0.0004269482398297536</v>
       </c>
       <c r="AB2">
-        <v>0.04712181527483815</v>
+        <v>0.04176150485444023</v>
       </c>
       <c r="AC2">
-        <v>-0.04844966260573911</v>
+        <v>-0.04133455661461048</v>
       </c>
       <c r="AD2">
-        <v>8141.299999999999</v>
+        <v>7027.599999999999</v>
       </c>
       <c r="AE2">
-        <v>23.83561322028925</v>
+        <v>54.7013295449024</v>
       </c>
       <c r="AF2">
-        <v>8165.135613220289</v>
+        <v>7082.301329544902</v>
       </c>
       <c r="AG2">
-        <v>-3540.564386779712</v>
+        <v>-5363.798670455097</v>
       </c>
       <c r="AH2">
-        <v>0.3009984551696477</v>
+        <v>0.3274870709665192</v>
       </c>
       <c r="AI2">
-        <v>0.4819539036395254</v>
+        <v>0.479710417561205</v>
       </c>
       <c r="AJ2">
-        <v>-0.229591677006228</v>
+        <v>-0.5842853447807208</v>
       </c>
       <c r="AK2">
-        <v>-0.6761918077562843</v>
+        <v>-2.314375040295805</v>
       </c>
       <c r="AL2">
         <v>0</v>
@@ -699,10 +699,10 @@
         <v>0</v>
       </c>
       <c r="AN2">
-        <v>1493.816513761468</v>
+        <v>820.0233372228704</v>
       </c>
       <c r="AP2">
-        <v>-649.6448416109563</v>
+        <v>-625.8808250239319</v>
       </c>
     </row>
     <row r="3">
@@ -722,10 +722,10 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.0806</v>
+        <v>0.0573</v>
       </c>
       <c r="E3">
-        <v>0.17</v>
+        <v>0.0537</v>
       </c>
       <c r="F3">
         <v>0.06</v>
@@ -737,91 +737,91 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.001285295230457653</v>
+        <v>-0.004696385791520666</v>
       </c>
       <c r="J3">
-        <v>0.001280433642978811</v>
+        <v>-0.004683654625218351</v>
       </c>
       <c r="K3">
-        <v>184.1</v>
+        <v>149</v>
       </c>
       <c r="L3">
-        <v>0.3465085638998683</v>
+        <v>0.2952248860709332</v>
       </c>
       <c r="M3">
-        <v>193.3</v>
+        <v>199.1</v>
       </c>
       <c r="N3">
-        <v>0.09942904171596112</v>
+        <v>0.1309954602276465</v>
       </c>
       <c r="O3">
-        <v>1.049972840847366</v>
+        <v>1.336241610738255</v>
       </c>
       <c r="P3">
-        <v>91.09999999999999</v>
+        <v>90.5</v>
       </c>
       <c r="Q3">
-        <v>0.04685972943778612</v>
+        <v>0.05954339101256662</v>
       </c>
       <c r="R3">
-        <v>0.4948397609994568</v>
+        <v>0.6073825503355704</v>
       </c>
       <c r="S3">
-        <v>102.2</v>
+        <v>108.6</v>
       </c>
       <c r="T3">
-        <v>0.52871184687015</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="U3">
-        <v>3923.2</v>
+        <v>2678.2</v>
       </c>
       <c r="V3">
-        <v>2.018003189136361</v>
+        <v>1.762089611158629</v>
       </c>
       <c r="W3">
-        <v>0.2111965125616611</v>
+        <v>0.1544681733360979</v>
       </c>
       <c r="X3">
-        <v>0.04632033297483581</v>
+        <v>0.04051832343546788</v>
       </c>
       <c r="Y3">
-        <v>0.1648761795868253</v>
+        <v>0.11394984990063</v>
       </c>
       <c r="Z3">
-        <v>-2.074058797474033</v>
+        <v>-0.1823141431184625</v>
       </c>
       <c r="AA3">
-        <v>-0.002655694661801928</v>
+        <v>0.0008538964796595071</v>
       </c>
       <c r="AB3">
-        <v>0.04567249696769418</v>
+        <v>0.03921641033452544</v>
       </c>
       <c r="AC3">
-        <v>-0.04832819162949611</v>
+        <v>-0.03836251385486594</v>
       </c>
       <c r="AD3">
-        <v>205.9</v>
+        <v>211.9</v>
       </c>
       <c r="AE3">
-        <v>23.83561322028925</v>
+        <v>54.7013295449024</v>
       </c>
       <c r="AF3">
-        <v>229.7356132202893</v>
+        <v>266.6013295449024</v>
       </c>
       <c r="AG3">
-        <v>-3693.46438677971</v>
+        <v>-2411.598670455097</v>
       </c>
       <c r="AH3">
-        <v>0.1056821462594231</v>
+        <v>0.1492309718083541</v>
       </c>
       <c r="AI3">
-        <v>0.1923543187336202</v>
+        <v>0.2123465131188199</v>
       </c>
       <c r="AJ3">
-        <v>2.111317924779963</v>
+        <v>2.704499569595957</v>
       </c>
       <c r="AK3">
-        <v>1.353480372521666</v>
+        <v>1.69508745635059</v>
       </c>
       <c r="AL3">
         <v>0</v>
@@ -830,10 +830,10 @@
         <v>0</v>
       </c>
       <c r="AN3">
-        <v>37.77981651376147</v>
+        <v>24.72578763127188</v>
       </c>
       <c r="AP3">
-        <v>-677.6998874825157</v>
+        <v>-281.4000782328001</v>
       </c>
     </row>
     <row r="4">
@@ -853,13 +853,13 @@
         </is>
       </c>
       <c r="D4">
-        <v>0.0774</v>
+        <v>-0.0462</v>
       </c>
       <c r="E4">
-        <v>0.129</v>
+        <v>-0.253</v>
       </c>
       <c r="F4">
-        <v>0.12</v>
+        <v>0.0248</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -874,85 +874,85 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>1254.6</v>
+        <v>185.3</v>
       </c>
       <c r="L4">
-        <v>0.3292049330884282</v>
+        <v>0.08323974664210952</v>
       </c>
       <c r="M4">
-        <v>731.5</v>
+        <v>506.3</v>
       </c>
       <c r="N4">
-        <v>0.04298490974050395</v>
+        <v>0.03887438574938575</v>
       </c>
       <c r="O4">
-        <v>0.5830543599553643</v>
+        <v>2.732325957906098</v>
       </c>
       <c r="P4">
-        <v>701.7</v>
+        <v>455.4</v>
       </c>
       <c r="Q4">
-        <v>0.04123378149680332</v>
+        <v>0.03496621621621621</v>
       </c>
       <c r="R4">
-        <v>0.5593017694882831</v>
+        <v>2.45763626551538</v>
       </c>
       <c r="S4">
-        <v>29.79999999999995</v>
+        <v>50.89999999999998</v>
       </c>
       <c r="T4">
-        <v>0.04073820915926173</v>
+        <v>0.1005332806636381</v>
       </c>
       <c r="U4">
-        <v>7782.5</v>
+        <v>9767.9</v>
       </c>
       <c r="V4">
-        <v>0.4573206562617526</v>
+        <v>0.7499923218673218</v>
       </c>
       <c r="W4">
-        <v>0.1798503397459789</v>
+        <v>0.02413891928508155</v>
       </c>
       <c r="X4">
-        <v>0.05476406321482588</v>
+        <v>0.0497587033717712</v>
       </c>
       <c r="Y4">
-        <v>0.1250862765311531</v>
+        <v>-0.02561978408668965</v>
       </c>
       <c r="Z4">
-        <v>0.4910892620130666</v>
+        <v>0.2911533129299747</v>
       </c>
       <c r="AA4">
         <v>0</v>
       </c>
       <c r="AB4">
-        <v>0.04857113358198211</v>
+        <v>0.04430659937435503</v>
       </c>
       <c r="AC4">
-        <v>-0.04857113358198211</v>
+        <v>-0.04430659937435503</v>
       </c>
       <c r="AD4">
-        <v>7935.4</v>
+        <v>6815.7</v>
       </c>
       <c r="AE4">
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>7935.4</v>
+        <v>6815.7</v>
       </c>
       <c r="AG4">
-        <v>152.8999999999996</v>
+        <v>-2952.2</v>
       </c>
       <c r="AH4">
-        <v>0.3180138660682082</v>
+        <v>0.3435384607630155</v>
       </c>
       <c r="AI4">
-        <v>0.5039181071160953</v>
+        <v>0.5045601930679142</v>
       </c>
       <c r="AJ4">
-        <v>0.00890480766430795</v>
+        <v>-0.2931154312039556</v>
       </c>
       <c r="AK4">
-        <v>0.01919672563371789</v>
+        <v>-0.7892949763387963</v>
       </c>
       <c r="AL4">
         <v>0</v>
